--- a/output/FreqTheo0.1Citptile0.9alpha0.05power0.8N1000/FreqTheo0.1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
+++ b/output/FreqTheo0.1Citptile0.9alpha0.05power0.8N1000/FreqTheo0.1Citptile0.9alpha0.05power0.8N1000N1000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lewan\Documents\MATLAB\Modeling\Replication market\output\FreqTheo0.1Citptile0.9alpha0.05power0.8N1000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9F520C-2C6F-46C3-8C6E-40984DCBF1DE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C14EB38-119F-4F3A-B1ED-97FAF01CF69C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2250" windowWidth="21600" windowHeight="12735" xr2:uid="{C8ECDEF0-B2AC-4BC9-AF36-7B243EDD8B7C}"/>
+    <workbookView xWindow="1152" yWindow="6684" windowWidth="27060" windowHeight="10800" xr2:uid="{22878CF9-B846-4C52-A126-A6C2AC153667}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="4" r:id="rId1"/>
@@ -466,29 +466,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8A0664-2659-496E-80C2-60857BA59891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114DC1ED-9B2C-40C7-B991-EDBF05E7DB0C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -543,46 +543,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.8599651591529069E-2</v>
+        <v>5.021888076278614E-2</v>
       </c>
       <c r="D2">
-        <v>0.80030073852842409</v>
+        <v>0.8002263534971763</v>
       </c>
       <c r="E2">
-        <v>8.1859999999999999</v>
+        <v>8.1750000000000007</v>
       </c>
       <c r="F2">
-        <v>111.515</v>
+        <v>112.03</v>
       </c>
       <c r="G2">
-        <v>5.98</v>
+        <v>6.2240000000000002</v>
       </c>
       <c r="H2">
-        <v>0.84399999999999997</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="I2">
-        <v>0.88400000000000001</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="J2">
-        <v>5.2480933851004684E-2</v>
+        <v>4.6802330665967035E-2</v>
       </c>
       <c r="K2">
-        <v>0.80833730708172824</v>
+        <v>0.80651359184158722</v>
       </c>
       <c r="L2">
-        <v>11.515000000000001</v>
+        <v>12.03</v>
       </c>
       <c r="M2">
-        <v>111.515</v>
+        <v>112.03</v>
       </c>
       <c r="N2">
-        <v>0.88</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="O2">
-        <v>0.82499999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -590,46 +590,46 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>5.014915210833383E-2</v>
+        <v>4.9661189819183466E-2</v>
       </c>
       <c r="D3">
-        <v>0.80765552246854333</v>
+        <v>0.80922818668333552</v>
       </c>
       <c r="E3">
-        <v>8.1780000000000008</v>
+        <v>8.1869999999999994</v>
       </c>
       <c r="F3">
-        <v>111.964</v>
+        <v>111.68899999999999</v>
       </c>
       <c r="G3">
-        <v>6.2350000000000003</v>
+        <v>6.0049999999999999</v>
       </c>
       <c r="H3">
-        <v>0.63300000000000001</v>
+        <v>0.61099999999999999</v>
       </c>
       <c r="I3">
-        <v>0.61899999999999999</v>
+        <v>0.63</v>
       </c>
       <c r="J3">
-        <v>4.7247507585609021E-2</v>
+        <v>4.6462063086104004E-2</v>
       </c>
       <c r="K3">
-        <v>0.82066641471403368</v>
+        <v>0.81675061050061026</v>
       </c>
       <c r="L3">
-        <v>11.964</v>
+        <v>11.689</v>
       </c>
       <c r="M3">
-        <v>101.19199999999999</v>
+        <v>101.21599999999999</v>
       </c>
       <c r="N3">
-        <v>0.67200000000000004</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="O3">
-        <v>0.63200000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -637,46 +637,46 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.9663265073953473E-2</v>
+        <v>5.0066893025005263E-2</v>
       </c>
       <c r="D4">
-        <v>0.81231191555865934</v>
+        <v>0.810637796946996</v>
       </c>
       <c r="E4">
-        <v>8.1869999999999994</v>
+        <v>8.173</v>
       </c>
       <c r="F4">
-        <v>111.3</v>
+        <v>111.429</v>
       </c>
       <c r="G4">
-        <v>5.7089999999999996</v>
+        <v>5.7519999999999998</v>
       </c>
       <c r="H4">
-        <v>0.80300000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="I4">
-        <v>0.72799999999999998</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="J4">
-        <v>3.9585870889159561E-2</v>
+        <v>4.7399672399672396E-2</v>
       </c>
       <c r="K4">
-        <v>0.82231001545160831</v>
+        <v>0.80585269697419204</v>
       </c>
       <c r="L4">
-        <v>11.3</v>
+        <v>11.429</v>
       </c>
       <c r="M4">
-        <v>101.643</v>
+        <v>101.67100000000001</v>
       </c>
       <c r="N4">
-        <v>0.81399999999999995</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="O4">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -684,46 +684,46 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>4.936343927742011E-2</v>
+        <v>4.9811224560410358E-2</v>
       </c>
       <c r="D5">
-        <v>0.80295463925045085</v>
+        <v>0.80759270180552889</v>
       </c>
       <c r="E5">
-        <v>8.1920000000000002</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="F5">
-        <v>111.98</v>
+        <v>111.634</v>
       </c>
       <c r="G5">
-        <v>6.2859999999999996</v>
+        <v>5.952</v>
       </c>
       <c r="H5">
-        <v>1.5249999999999999</v>
+        <v>1.516</v>
       </c>
       <c r="I5">
-        <v>1.4850000000000001</v>
+        <v>1.542</v>
       </c>
       <c r="J5">
-        <v>4.7616256350136769E-2</v>
+        <v>2.9780133490380837E-2</v>
       </c>
       <c r="K5">
-        <v>0.80802722636495727</v>
+        <v>0.81817028897028965</v>
       </c>
       <c r="L5">
-        <v>11.98</v>
+        <v>11.634</v>
       </c>
       <c r="M5">
-        <v>102.83</v>
+        <v>102.755</v>
       </c>
       <c r="N5">
-        <v>1.496</v>
+        <v>1.44</v>
       </c>
       <c r="O5">
-        <v>1.4279999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -731,46 +731,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.0619395767213308E-2</v>
+        <v>7.581916423074693E-2</v>
       </c>
       <c r="D6">
-        <v>0.86915683049159764</v>
+        <v>0.88852252487400885</v>
       </c>
       <c r="E6">
-        <v>8.1709999999999994</v>
+        <v>8.1929999999999996</v>
       </c>
       <c r="F6">
-        <v>114.214</v>
+        <v>114.997</v>
       </c>
       <c r="G6">
-        <v>7.2469999999999999</v>
+        <v>7.7050000000000001</v>
       </c>
       <c r="H6">
-        <v>1.087</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="I6">
+        <v>1.044</v>
+      </c>
+      <c r="J6">
+        <v>7.5393185820321729E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.89013810898165002</v>
+      </c>
+      <c r="L6">
+        <v>14.997</v>
+      </c>
+      <c r="M6">
+        <v>114.997</v>
+      </c>
+      <c r="N6">
+        <v>1.18</v>
+      </c>
+      <c r="O6">
         <v>1.0289999999999999</v>
       </c>
-      <c r="J6">
-        <v>7.3629168151781388E-2</v>
-      </c>
-      <c r="K6">
-        <v>0.87196848123056891</v>
-      </c>
-      <c r="L6">
-        <v>14.214</v>
-      </c>
-      <c r="M6">
-        <v>114.214</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -778,46 +778,46 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>7.1272301240436278E-2</v>
+        <v>7.5730641009322919E-2</v>
       </c>
       <c r="D7">
-        <v>0.866581103254633</v>
+        <v>0.88684235317138094</v>
       </c>
       <c r="E7">
-        <v>8.1609999999999996</v>
+        <v>8.2040000000000006</v>
       </c>
       <c r="F7">
-        <v>114.092</v>
+        <v>114.648</v>
       </c>
       <c r="G7">
-        <v>7.05</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="H7">
-        <v>0.74399999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I7">
-        <v>0.67400000000000004</v>
+        <v>0.69299999999999995</v>
       </c>
       <c r="J7">
-        <v>7.3420074349442394E-2</v>
+        <v>8.1894780106863962E-2</v>
       </c>
       <c r="K7">
-        <v>0.87528631705846915</v>
+        <v>0.87802308802308815</v>
       </c>
       <c r="L7">
-        <v>14.092000000000001</v>
+        <v>14.648</v>
       </c>
       <c r="M7">
-        <v>101.444</v>
+        <v>101.512</v>
       </c>
       <c r="N7">
-        <v>0.78200000000000003</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="O7">
-        <v>0.70599999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1</v>
       </c>
@@ -825,46 +825,46 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.9844615917642766E-2</v>
+        <v>7.7443037117695235E-2</v>
       </c>
       <c r="D8">
-        <v>0.86887725829792939</v>
+        <v>0.88801769492753879</v>
       </c>
       <c r="E8">
-        <v>8.1609999999999996</v>
+        <v>8.173</v>
       </c>
       <c r="F8">
-        <v>114.547</v>
+        <v>115.154</v>
       </c>
       <c r="G8">
-        <v>7.5750000000000002</v>
+        <v>7.7030000000000003</v>
       </c>
       <c r="H8">
-        <v>1.073</v>
+        <v>1.107</v>
       </c>
       <c r="I8">
-        <v>1.054</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="J8">
-        <v>6.2560508837104595E-2</v>
+        <v>8.0766192733017383E-2</v>
       </c>
       <c r="K8">
-        <v>0.86377130602982888</v>
+        <v>0.88606462388513674</v>
       </c>
       <c r="L8">
-        <v>14.547000000000001</v>
+        <v>15.154</v>
       </c>
       <c r="M8">
-        <v>102.041</v>
+        <v>102.188</v>
       </c>
       <c r="N8">
-        <v>1.05</v>
+        <v>1.1619999999999999</v>
       </c>
       <c r="O8">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.0589999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -872,46 +872,46 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>7.2438587957133746E-2</v>
+        <v>7.5598894536237138E-2</v>
       </c>
       <c r="D9">
-        <v>0.8626497155859072</v>
+        <v>0.88956680309946656</v>
       </c>
       <c r="E9">
-        <v>8.1829999999999998</v>
+        <v>8.17</v>
       </c>
       <c r="F9">
-        <v>114.405</v>
+        <v>114.497</v>
       </c>
       <c r="G9">
-        <v>7.3250000000000002</v>
+        <v>7.2080000000000002</v>
       </c>
       <c r="H9">
-        <v>1.6279999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="I9">
-        <v>1.595</v>
+        <v>1.4870000000000001</v>
       </c>
       <c r="J9">
-        <v>5.8701250919793981E-2</v>
+        <v>6.8237630913687272E-2</v>
       </c>
       <c r="K9">
-        <v>0.86834092545630981</v>
+        <v>0.89143799234039878</v>
       </c>
       <c r="L9">
-        <v>14.404999999999999</v>
+        <v>14.497</v>
       </c>
       <c r="M9">
-        <v>103.41800000000001</v>
+        <v>103.48699999999999</v>
       </c>
       <c r="N9">
-        <v>1.77</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="O9">
-        <v>1.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.6439999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -919,46 +919,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.9981152542242338E-2</v>
+        <v>0.10432358396519584</v>
       </c>
       <c r="D10">
-        <v>0.95196582104719885</v>
+        <v>0.96780354308288552</v>
       </c>
       <c r="E10">
-        <v>8.1959999999999997</v>
+        <v>8.1950000000000003</v>
       </c>
       <c r="F10">
-        <v>117.849</v>
+        <v>117.98399999999999</v>
       </c>
       <c r="G10">
-        <v>9.3149999999999995</v>
+        <v>9.2349999999999994</v>
       </c>
       <c r="H10">
-        <v>1.349</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="I10">
-        <v>1.2709999999999999</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="J10">
-        <v>0.10000384761866986</v>
+        <v>0.10904102151288714</v>
       </c>
       <c r="K10">
-        <v>0.95300263679874797</v>
+        <v>0.96768704082816703</v>
       </c>
       <c r="L10">
-        <v>17.849</v>
+        <v>17.984000000000002</v>
       </c>
       <c r="M10">
-        <v>117.849</v>
+        <v>117.98399999999999</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="O10">
-        <v>1.173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -966,46 +966,46 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>9.8056500910942646E-2</v>
+        <v>0.10483491885986339</v>
       </c>
       <c r="D11">
-        <v>0.95279746585738623</v>
+        <v>0.97019194416669574</v>
       </c>
       <c r="E11">
-        <v>8.1850000000000005</v>
+        <v>8.1660000000000004</v>
       </c>
       <c r="F11">
-        <v>117.42400000000001</v>
+        <v>118.19</v>
       </c>
       <c r="G11">
-        <v>9.0419999999999998</v>
+        <v>9.3840000000000003</v>
       </c>
       <c r="H11">
-        <v>0.93</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="I11">
-        <v>0.80100000000000005</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="J11">
-        <v>9.9940119760479049E-2</v>
+        <v>0.10062967335694609</v>
       </c>
       <c r="K11">
-        <v>0.94346322666258342</v>
+        <v>0.96584221748400878</v>
       </c>
       <c r="L11">
-        <v>17.423999999999999</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="M11">
-        <v>101.762</v>
+        <v>101.846</v>
       </c>
       <c r="N11">
-        <v>0.92900000000000005</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="O11">
-        <v>0.81699999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1013,46 +1013,46 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>9.9390893218406814E-2</v>
+        <v>0.10346815975062336</v>
       </c>
       <c r="D12">
-        <v>0.95370921757158156</v>
+        <v>0.96659008710795447</v>
       </c>
       <c r="E12">
-        <v>8.1859999999999999</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F12">
-        <v>117.578</v>
+        <v>118.133</v>
       </c>
       <c r="G12">
-        <v>9.0589999999999993</v>
+        <v>9.4160000000000004</v>
       </c>
       <c r="H12">
-        <v>1.351</v>
+        <v>1.274</v>
       </c>
       <c r="I12">
-        <v>1.2969999999999999</v>
+        <v>1.3959999999999999</v>
       </c>
       <c r="J12">
-        <v>9.9307893752338228E-2</v>
+        <v>9.6766169154228851E-2</v>
       </c>
       <c r="K12">
-        <v>0.95263832058352627</v>
+        <v>0.97736848452145919</v>
       </c>
       <c r="L12">
-        <v>17.577999999999999</v>
+        <v>18.132999999999999</v>
       </c>
       <c r="M12">
-        <v>102.541</v>
+        <v>102.57599999999999</v>
       </c>
       <c r="N12">
-        <v>1.3460000000000001</v>
+        <v>1.385</v>
       </c>
       <c r="O12">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1060,46 +1060,46 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.10065364462082586</v>
+        <v>0.10345596232074016</v>
       </c>
       <c r="D13">
-        <v>0.95133183463995552</v>
+        <v>0.96865484134056035</v>
       </c>
       <c r="E13">
-        <v>8.1790000000000003</v>
+        <v>8.1959999999999997</v>
       </c>
       <c r="F13">
-        <v>117.842</v>
+        <v>117.831</v>
       </c>
       <c r="G13">
-        <v>9.266</v>
+        <v>9.1080000000000005</v>
       </c>
       <c r="H13">
-        <v>2.3090000000000002</v>
+        <v>2.3119999999999998</v>
       </c>
       <c r="I13">
-        <v>2.0289999999999999</v>
+        <v>1.855</v>
       </c>
       <c r="J13">
-        <v>0.10409574468085107</v>
+        <v>0.1133931727516032</v>
       </c>
       <c r="K13">
-        <v>0.95037784161668948</v>
+        <v>0.96811441971947143</v>
       </c>
       <c r="L13">
-        <v>17.841999999999999</v>
+        <v>17.831</v>
       </c>
       <c r="M13">
-        <v>104.267</v>
+        <v>104.22199999999999</v>
       </c>
       <c r="N13">
-        <v>2.2280000000000002</v>
+        <v>2.169</v>
       </c>
       <c r="O13">
-        <v>2.0049999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.9119999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1107,46 +1107,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.11574906181375395</v>
+        <v>0.11783414085850033</v>
       </c>
       <c r="D14">
-        <v>0.98062739392017773</v>
+        <v>0.99062433866444832</v>
       </c>
       <c r="E14">
-        <v>8.1829999999999998</v>
+        <v>8.1739999999999995</v>
       </c>
       <c r="F14">
-        <v>119.187</v>
+        <v>119.714</v>
       </c>
       <c r="G14">
-        <v>9.6720000000000006</v>
+        <v>10.218999999999999</v>
       </c>
       <c r="H14">
-        <v>1.369</v>
+        <v>1.4510000000000001</v>
       </c>
       <c r="I14">
-        <v>1.3740000000000001</v>
+        <v>1.26</v>
       </c>
       <c r="J14">
-        <v>0.11833469696797907</v>
+        <v>0.10855591763327857</v>
       </c>
       <c r="K14">
-        <v>0.98088136951066673</v>
+        <v>0.98866864670232801</v>
       </c>
       <c r="L14">
-        <v>19.187000000000001</v>
+        <v>19.713999999999999</v>
       </c>
       <c r="M14">
-        <v>119.187</v>
+        <v>119.714</v>
       </c>
       <c r="N14">
-        <v>1.2809999999999999</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="O14">
-        <v>1.109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1154,46 +1154,46 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>0.11561483293944372</v>
+        <v>0.11798129109243854</v>
       </c>
       <c r="D15">
-        <v>0.98100401051008879</v>
+        <v>0.99052460480581839</v>
       </c>
       <c r="E15">
-        <v>8.1940000000000008</v>
+        <v>8.1709999999999994</v>
       </c>
       <c r="F15">
-        <v>118.819</v>
+        <v>119.547</v>
       </c>
       <c r="G15">
-        <v>9.2949999999999999</v>
+        <v>10.053000000000001</v>
       </c>
       <c r="H15">
-        <v>0.96399999999999997</v>
+        <v>0.98</v>
       </c>
       <c r="I15">
-        <v>0.84899999999999998</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="J15">
-        <v>0.10726149092313632</v>
+        <v>0.10457940251572327</v>
       </c>
       <c r="K15">
-        <v>0.9707363456564736</v>
+        <v>0.99143870314083082</v>
       </c>
       <c r="L15">
-        <v>18.818999999999999</v>
+        <v>19.547000000000001</v>
       </c>
       <c r="M15">
-        <v>101.92</v>
+        <v>101.91500000000001</v>
       </c>
       <c r="N15">
         <v>0.98299999999999998</v>
       </c>
       <c r="O15">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1201,46 +1201,46 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0.11558600215365653</v>
+        <v>0.11888315789327332</v>
       </c>
       <c r="D16">
-        <v>0.9788764024849852</v>
+        <v>0.99191283030364963</v>
       </c>
       <c r="E16">
-        <v>8.1709999999999994</v>
+        <v>8.2029999999999994</v>
       </c>
       <c r="F16">
-        <v>119.072</v>
+        <v>119.43300000000001</v>
       </c>
       <c r="G16">
-        <v>9.4979999999999993</v>
+        <v>9.8179999999999996</v>
       </c>
       <c r="H16">
-        <v>1.427</v>
+        <v>1.3979999999999999</v>
       </c>
       <c r="I16">
-        <v>1.248</v>
+        <v>1.26</v>
       </c>
       <c r="J16">
-        <v>0.11346286563677867</v>
+        <v>0.12318874744617314</v>
       </c>
       <c r="K16">
-        <v>0.9817557631590329</v>
+        <v>0.98689887210295379</v>
       </c>
       <c r="L16">
-        <v>19.071999999999999</v>
+        <v>19.433</v>
       </c>
       <c r="M16">
-        <v>102.70399999999999</v>
+        <v>102.75700000000001</v>
       </c>
       <c r="N16">
-        <v>1.375</v>
+        <v>1.3680000000000001</v>
       </c>
       <c r="O16">
-        <v>1.1930000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1248,43 +1248,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.11510548861691043</v>
+        <v>0.11858206439716852</v>
       </c>
       <c r="D17">
-        <v>0.98031159792270017</v>
+        <v>0.99021355343129824</v>
       </c>
       <c r="E17">
-        <v>8.1760000000000002</v>
+        <v>8.2010000000000005</v>
       </c>
       <c r="F17">
-        <v>119.83199999999999</v>
+        <v>119.511</v>
       </c>
       <c r="G17">
-        <v>10.488</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="H17">
-        <v>2.6960000000000002</v>
+        <v>2.1989999999999998</v>
       </c>
       <c r="I17">
-        <v>2.31</v>
+        <v>2.2519999999999998</v>
       </c>
       <c r="J17">
-        <v>0.12634836650709669</v>
+        <v>0.10817063904993146</v>
       </c>
       <c r="K17">
-        <v>0.98721803503367389</v>
+        <v>0.99343404364179977</v>
       </c>
       <c r="L17">
-        <v>19.832000000000001</v>
+        <v>19.510999999999999</v>
       </c>
       <c r="M17">
-        <v>104.688</v>
+        <v>104.577</v>
       </c>
       <c r="N17">
-        <v>2.4830000000000001</v>
+        <v>2.29</v>
       </c>
       <c r="O17">
-        <v>2.1680000000000001</v>
+        <v>1.9930000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1293,29 +1293,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77778E97-01FB-49DF-AE13-154958D2E727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A997A7-041A-43D7-BFE9-55E74E686B0C}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1355,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>22.981961046756272</v>
       </c>
